--- a/data/trans_dic/P32-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.04846018772358744</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08921806260597163</v>
+        <v>0.08921806260597162</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0156026443291888</v>
+        <v>0.01534712658780675</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06059124036662834</v>
+        <v>0.06252728351931428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04256108454019564</v>
+        <v>0.04236024361224982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07050446760628484</v>
+        <v>0.07296254382274751</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006306609565879327</v>
+        <v>0.006338596745137488</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009770179801898017</v>
+        <v>0.0101709979456707</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01171526766431252</v>
+        <v>0.01151386381401748</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01726570627163787</v>
+        <v>0.01858933090644609</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01573200645820104</v>
+        <v>0.01671029231913076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0505681099838659</v>
+        <v>0.04950526525147007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03595471770543685</v>
+        <v>0.03536545033549456</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06081522200299756</v>
+        <v>0.05751136405040044</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05373032923588032</v>
+        <v>0.05255006155712629</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.109619876632362</v>
+        <v>0.1087709772039071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08464030129040331</v>
+        <v>0.08671604089630959</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1707977337778898</v>
+        <v>0.1826873193377894</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06134413838409201</v>
+        <v>0.06134791684961923</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05477938702447852</v>
+        <v>0.05978363702882971</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04714997115579894</v>
+        <v>0.04653335716838411</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0976304558109098</v>
+        <v>0.09623185110776328</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04586872899474338</v>
+        <v>0.04478655657910201</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08564928464099372</v>
+        <v>0.0848366499952548</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06521793552290772</v>
+        <v>0.06480931109327852</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1338636983628602</v>
+        <v>0.1328229222835212</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03811738446478516</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03634329833227575</v>
+        <v>0.03634329833227574</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01419099955381632</v>
+        <v>0.01432016651469293</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03418970104969095</v>
+        <v>0.03578538005947328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.028676008556543</v>
+        <v>0.02840764145219022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03084661641218743</v>
+        <v>0.03124117056862238</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007849063604723905</v>
+        <v>0.007854656465041217</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006460856096471975</v>
+        <v>0.006489185332426307</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01279532069729985</v>
+        <v>0.0127411066556538</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005127672685261748</v>
+        <v>0.00422475878179557</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0154370549321531</v>
+        <v>0.01581091339459645</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02849645730566234</v>
+        <v>0.02795796371021641</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0255770470459428</v>
+        <v>0.02749030825720636</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02417418636995997</v>
+        <v>0.02353156701319615</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03993984821771884</v>
+        <v>0.03984822207572219</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07558832853947557</v>
+        <v>0.0735845761050406</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06474908751320753</v>
+        <v>0.06300549690258719</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07215481269749448</v>
+        <v>0.07149551361310839</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05027686133505205</v>
+        <v>0.05309424859607323</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03433481209834587</v>
+        <v>0.03624684367287914</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05193039109577717</v>
+        <v>0.05105746667385806</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02955582153188368</v>
+        <v>0.03016746386017871</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03586199095206328</v>
+        <v>0.03574065781002796</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05711584262004339</v>
+        <v>0.0552737544832646</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05130493579223617</v>
+        <v>0.05262805473390068</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0541181974469342</v>
+        <v>0.05319438192175521</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03678842533309173</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04084572102010632</v>
+        <v>0.04084572102010631</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02047496949654195</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0159566918367699</v>
+        <v>0.01753638647756805</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03549698744596697</v>
+        <v>0.03532519062931132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03082055719832676</v>
+        <v>0.03171086473087154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02714840409840203</v>
+        <v>0.02644590665521416</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00721210561023101</v>
+        <v>0.00717121712256938</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02010634907858186</v>
+        <v>0.01732429330257697</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01852260474128224</v>
+        <v>0.01841187771373679</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01245642911088575</v>
+        <v>0.01313233890243074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0292726983141335</v>
+        <v>0.02814773700762089</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03113048575785433</v>
+        <v>0.03052980416667975</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02852858842363079</v>
+        <v>0.02909331821795976</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04508710594591022</v>
+        <v>0.04827821731729581</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07744820756340177</v>
+        <v>0.07409592144684837</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07111326350025363</v>
+        <v>0.072709285565058</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06363420579979076</v>
+        <v>0.06359052131792119</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01613587623060159</v>
+        <v>0.01940400201990524</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04250421538925001</v>
+        <v>0.04571581265657245</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06512947118377221</v>
+        <v>0.06418180590245708</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08029959902797858</v>
+        <v>0.07977164147246275</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03105173515387604</v>
+        <v>0.0323232888510621</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06057000655108882</v>
+        <v>0.05711134411474745</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0650799605353146</v>
+        <v>0.06194720936540388</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0599313817289069</v>
+        <v>0.06315788963717756</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.04923529288595532</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04455660562995779</v>
+        <v>0.04455660562995781</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01716148840832884</v>
@@ -1105,7 +1105,7 @@
         <v>0.05533328036825414</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06757268689963017</v>
+        <v>0.06757268689963018</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008223495325352874</v>
+        <v>0.006944004167913571</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06191942529409313</v>
+        <v>0.06243347741166253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03678395727208267</v>
+        <v>0.03528307246934149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05326195906531394</v>
+        <v>0.05511441320119042</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.005931216420378378</v>
+        <v>0.006588580748968484</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02465114438195823</v>
+        <v>0.02048680293734856</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02258435800831729</v>
+        <v>0.02413236275580041</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.006179536361580674</v>
+        <v>0.006667148683509472</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04702522385894356</v>
+        <v>0.04377159899232985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03777753353343575</v>
+        <v>0.03897800971350669</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05075585505371051</v>
+        <v>0.04955580430614874</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05134563523539534</v>
+        <v>0.04815437601756686</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1327123670247819</v>
+        <v>0.13443318826044</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09186088055988019</v>
+        <v>0.09299690567673967</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1106709094338467</v>
+        <v>0.1192675070898021</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04279294768628373</v>
+        <v>0.04263060145886111</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0690936489578854</v>
+        <v>0.06850140547631191</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08903496576677038</v>
+        <v>0.09279690904712924</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08221960066249076</v>
+        <v>0.07919890184311271</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03587548413689449</v>
+        <v>0.03645094998570053</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09894786567665406</v>
+        <v>0.09601930827008331</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07967040309853546</v>
+        <v>0.08306176232837094</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09311514330970112</v>
+        <v>0.09115873140034181</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.03276358563394367</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03479202528675744</v>
+        <v>0.03479202528675743</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02261329602110495</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01945659624808633</v>
+        <v>0.01912951601802238</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05716275682074296</v>
+        <v>0.05613033484418453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04264069196323501</v>
+        <v>0.04310162482343033</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05241111969429993</v>
+        <v>0.0529853555663157</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.007018439725147916</v>
+        <v>0.007371106430411154</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01341885172068097</v>
+        <v>0.01330326045817481</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02313742872197095</v>
+        <v>0.02434579971387166</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02387212643218808</v>
+        <v>0.02330394359418703</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01730338316334957</v>
+        <v>0.01733214004297645</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04381500955666757</v>
+        <v>0.04487842177148749</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03820994457310388</v>
+        <v>0.03814046011068373</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04482721801884922</v>
+        <v>0.04529382254384776</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03509176195231208</v>
+        <v>0.03444758101363758</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07959597275260696</v>
+        <v>0.07967608546303459</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06365126223151783</v>
+        <v>0.0647136378234469</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07945804784735726</v>
+        <v>0.07981460661137929</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02472948480373586</v>
+        <v>0.02495872702753817</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03374741895319176</v>
+        <v>0.03393436090428113</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0445420283073122</v>
+        <v>0.04589081291709637</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05078686750782999</v>
+        <v>0.05039629842203025</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02902005101296619</v>
+        <v>0.02936953139503767</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06012127402574647</v>
+        <v>0.06151471179807239</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05346541191984271</v>
+        <v>0.05435524741473242</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06535934011669375</v>
+        <v>0.06478609312450015</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4692</v>
+        <v>4615</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36526</v>
+        <v>37693</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25230</v>
+        <v>25111</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15141</v>
+        <v>15669</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2762</v>
+        <v>2876</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3906</v>
+        <v>3839</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2020</v>
+        <v>2175</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7603</v>
+        <v>8075</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>44781</v>
+        <v>43840</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>33302</v>
+        <v>32756</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>20176</v>
+        <v>19080</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16158</v>
+        <v>15803</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>66081</v>
+        <v>65569</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>50174</v>
+        <v>51404</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36679</v>
+        <v>39233</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11198</v>
+        <v>11199</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15488</v>
+        <v>16903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15721</v>
+        <v>15515</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11423</v>
+        <v>11259</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22167</v>
+        <v>21644</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>75847</v>
+        <v>75127</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>60406</v>
+        <v>60027</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>44410</v>
+        <v>44065</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8978</v>
+        <v>9060</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20105</v>
+        <v>21043</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15593</v>
+        <v>15447</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14130</v>
+        <v>14310</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2062</v>
+        <v>2071</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4173</v>
+        <v>4155</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1249</v>
+        <v>1029</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>13576</v>
+        <v>13905</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>25851</v>
+        <v>25362</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>22249</v>
+        <v>23914</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16963</v>
+        <v>16512</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25269</v>
+        <v>25211</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44448</v>
+        <v>43270</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35208</v>
+        <v>34260</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33052</v>
+        <v>32750</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12407</v>
+        <v>13102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10957</v>
+        <v>11567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16936</v>
+        <v>16651</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7201</v>
+        <v>7350</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>31539</v>
+        <v>31432</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>51813</v>
+        <v>50142</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>44630</v>
+        <v>45781</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>37975</v>
+        <v>37326</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10471</v>
+        <v>11508</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19468</v>
+        <v>19373</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16326</v>
+        <v>16797</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13731</v>
+        <v>13376</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5864</v>
+        <v>5053</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4948</v>
+        <v>4919</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12132</v>
+        <v>12791</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>24193</v>
+        <v>23263</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25569</v>
+        <v>25075</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>22050</v>
+        <v>22487</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29588</v>
+        <v>31682</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42475</v>
+        <v>40637</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37669</v>
+        <v>38514</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32185</v>
+        <v>32163</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5127</v>
+        <v>6166</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11818</v>
+        <v>12711</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18995</v>
+        <v>18718</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21451</v>
+        <v>21310</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30244</v>
+        <v>31482</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>50059</v>
+        <v>47201</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>53453</v>
+        <v>50880</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>46322</v>
+        <v>48816</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2274</v>
+        <v>1920</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18211</v>
+        <v>18363</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11729</v>
+        <v>11250</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25803</v>
+        <v>26700</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>993</v>
+        <v>1104</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4616</v>
+        <v>3836</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6105</v>
+        <v>6524</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2529</v>
+        <v>2729</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>21707</v>
+        <v>20205</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>19120</v>
+        <v>19728</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>38310</v>
+        <v>37404</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14197</v>
+        <v>13314</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39033</v>
+        <v>39539</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29291</v>
+        <v>29653</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53615</v>
+        <v>57780</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5684</v>
+        <v>5662</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11573</v>
+        <v>11474</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16673</v>
+        <v>17377</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22227</v>
+        <v>21410</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14685</v>
+        <v>14920</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>45675</v>
+        <v>44323</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>40323</v>
+        <v>42039</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>70282</v>
+        <v>68806</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36308</v>
+        <v>35698</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>116235</v>
+        <v>114135</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>84647</v>
+        <v>85562</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>87162</v>
+        <v>88117</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6176</v>
+        <v>6486</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14055</v>
+        <v>13934</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>26341</v>
+        <v>27717</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>21440</v>
+        <v>20930</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>47515</v>
+        <v>47594</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>134984</v>
+        <v>138260</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>119352</v>
+        <v>119135</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>114810</v>
+        <v>116005</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>65485</v>
+        <v>64283</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>161850</v>
+        <v>162013</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>126355</v>
+        <v>128464</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>132143</v>
+        <v>132736</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21759</v>
+        <v>21961</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>35346</v>
+        <v>35542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>50709</v>
+        <v>52245</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>45612</v>
+        <v>45262</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>79689</v>
+        <v>80649</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>185220</v>
+        <v>189513</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>167003</v>
+        <v>169783</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>167396</v>
+        <v>165928</v>
       </c>
     </row>
     <row r="24">
